--- a/Team-Data/2020-21/12-28-2020-21.xlsx
+++ b/Team-Data/2020-21/12-28-2020-21.xlsx
@@ -733,10 +733,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -748,145 +748,145 @@
         <v>48</v>
       </c>
       <c r="I2" t="n">
-        <v>40.3</v>
+        <v>40.5</v>
       </c>
       <c r="J2" t="n">
-        <v>83.7</v>
+        <v>84.5</v>
       </c>
       <c r="K2" t="n">
-        <v>0.482</v>
+        <v>0.479</v>
       </c>
       <c r="L2" t="n">
-        <v>15.7</v>
+        <v>13.5</v>
       </c>
       <c r="M2" t="n">
-        <v>37.7</v>
+        <v>35.5</v>
       </c>
       <c r="N2" t="n">
-        <v>0.416</v>
+        <v>0.38</v>
       </c>
       <c r="O2" t="n">
-        <v>28.3</v>
+        <v>28.5</v>
       </c>
       <c r="P2" t="n">
-        <v>33</v>
+        <v>33.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.859</v>
+        <v>0.851</v>
       </c>
       <c r="R2" t="n">
-        <v>9.699999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="S2" t="n">
-        <v>38.7</v>
+        <v>39.5</v>
       </c>
       <c r="T2" t="n">
-        <v>48.3</v>
+        <v>50</v>
       </c>
       <c r="U2" t="n">
-        <v>25.7</v>
+        <v>23.5</v>
       </c>
       <c r="V2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="W2" t="n">
         <v>5</v>
       </c>
       <c r="X2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>123</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>14</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AS2" t="n">
         <v>5</v>
       </c>
-      <c r="Y2" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>24.7</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>124.7</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="AD2" t="n">
+      <c r="AT2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>16</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>27</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>27</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>22</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>27</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB2" t="n">
         <v>3</v>
       </c>
-      <c r="AE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>18</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>28</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>8</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>8</v>
-      </c>
-      <c r="AN2" t="n">
+      <c r="BC2" t="n">
         <v>3</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>6</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>8</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>16</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>6</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>26</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>3</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>2</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -898,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-28-2020-21</t>
+          <t>2020-12-28</t>
         </is>
       </c>
     </row>
@@ -993,31 +993,31 @@
         <v>-9.300000000000001</v>
       </c>
       <c r="AD3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AF3" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AG3" t="n">
         <v>18</v>
       </c>
       <c r="AH3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI3" t="n">
         <v>13</v>
       </c>
       <c r="AJ3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM3" t="n">
         <v>24</v>
@@ -1026,7 +1026,7 @@
         <v>7</v>
       </c>
       <c r="AO3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP3" t="n">
         <v>27</v>
@@ -1038,37 +1038,37 @@
         <v>4</v>
       </c>
       <c r="AS3" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AT3" t="n">
         <v>25</v>
       </c>
       <c r="AU3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW3" t="n">
         <v>11</v>
       </c>
       <c r="AX3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ3" t="n">
         <v>9</v>
       </c>
-      <c r="AY3" t="n">
-        <v>30</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>11</v>
-      </c>
       <c r="BA3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BB3" t="n">
         <v>25</v>
       </c>
       <c r="BC3" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1080,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-28-2020-21</t>
+          <t>2020-12-28</t>
         </is>
       </c>
     </row>
@@ -1097,160 +1097,160 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
         <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5</v>
+        <v>0.667</v>
       </c>
       <c r="H4" t="n">
-        <v>49.3</v>
+        <v>48</v>
       </c>
       <c r="I4" t="n">
-        <v>39.8</v>
+        <v>39.3</v>
       </c>
       <c r="J4" t="n">
-        <v>87.5</v>
+        <v>83.3</v>
       </c>
       <c r="K4" t="n">
-        <v>0.454</v>
+        <v>0.472</v>
       </c>
       <c r="L4" t="n">
-        <v>15.3</v>
+        <v>15.7</v>
       </c>
       <c r="M4" t="n">
-        <v>38.3</v>
+        <v>37</v>
       </c>
       <c r="N4" t="n">
-        <v>0.399</v>
+        <v>0.423</v>
       </c>
       <c r="O4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P4" t="n">
-        <v>26.3</v>
+        <v>29.3</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.8</v>
+        <v>0.784</v>
       </c>
       <c r="R4" t="n">
-        <v>10.3</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="S4" t="n">
-        <v>38.8</v>
+        <v>39.3</v>
       </c>
       <c r="T4" t="n">
-        <v>49</v>
+        <v>48.7</v>
       </c>
       <c r="U4" t="n">
-        <v>24</v>
+        <v>22.7</v>
       </c>
       <c r="V4" t="n">
-        <v>18</v>
+        <v>18.3</v>
       </c>
       <c r="W4" t="n">
-        <v>8.300000000000001</v>
+        <v>6.7</v>
       </c>
       <c r="X4" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="Z4" t="n">
         <v>20.3</v>
       </c>
       <c r="AA4" t="n">
-        <v>23.3</v>
+        <v>25.3</v>
       </c>
       <c r="AB4" t="n">
-        <v>115.8</v>
+        <v>117.3</v>
       </c>
       <c r="AC4" t="n">
-        <v>11.8</v>
+        <v>17.3</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
       </c>
       <c r="AE4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF4" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AH4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI4" t="n">
         <v>24</v>
       </c>
       <c r="AJ4" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="AK4" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AL4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AM4" t="n">
         <v>7</v>
       </c>
       <c r="AN4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP4" t="n">
         <v>5</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AQ4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AS4" t="n">
         <v>6</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AT4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>20</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>25</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ4" t="n">
         <v>9</v>
       </c>
-      <c r="AQ4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>5</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>10</v>
-      </c>
       <c r="BA4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BB4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-28-2020-21</t>
+          <t>2020-12-28</t>
         </is>
       </c>
     </row>
@@ -1357,37 +1357,37 @@
         <v>-2.3</v>
       </c>
       <c r="AD5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE5" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AF5" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AG5" t="n">
         <v>18</v>
       </c>
       <c r="AH5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI5" t="n">
         <v>13</v>
       </c>
       <c r="AJ5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL5" t="n">
         <v>9</v>
       </c>
       <c r="AM5" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AN5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO5" t="n">
         <v>29</v>
@@ -1402,7 +1402,7 @@
         <v>6</v>
       </c>
       <c r="AS5" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AT5" t="n">
         <v>19</v>
@@ -1411,10 +1411,10 @@
         <v>2</v>
       </c>
       <c r="AV5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX5" t="n">
         <v>16</v>
@@ -1426,7 +1426,7 @@
         <v>15</v>
       </c>
       <c r="BA5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB5" t="n">
         <v>19</v>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-28-2020-21</t>
+          <t>2020-12-28</t>
         </is>
       </c>
     </row>
@@ -1539,19 +1539,19 @@
         <v>-13.3</v>
       </c>
       <c r="AD6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE6" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AF6" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AH6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI6" t="n">
         <v>27</v>
@@ -1560,43 +1560,43 @@
         <v>18</v>
       </c>
       <c r="AK6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM6" t="n">
         <v>6</v>
       </c>
       <c r="AN6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ6" t="n">
         <v>5</v>
       </c>
       <c r="AR6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AT6" t="n">
         <v>16</v>
       </c>
-      <c r="AS6" t="n">
+      <c r="AU6" t="n">
         <v>18</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>17</v>
       </c>
       <c r="AV6" t="n">
         <v>30</v>
       </c>
       <c r="AW6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX6" t="n">
         <v>12</v>
@@ -1605,13 +1605,13 @@
         <v>4</v>
       </c>
       <c r="AZ6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BA6" t="n">
         <v>2</v>
       </c>
       <c r="BB6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC6" t="n">
         <v>29</v>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-28-2020-21</t>
+          <t>2020-12-28</t>
         </is>
       </c>
     </row>
@@ -1721,31 +1721,31 @@
         <v>13.3</v>
       </c>
       <c r="AD7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH7" t="n">
         <v>3</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>1</v>
       </c>
       <c r="AI7" t="n">
         <v>2</v>
       </c>
       <c r="AJ7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL7" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AM7" t="n">
         <v>29</v>
@@ -1757,31 +1757,31 @@
         <v>20</v>
       </c>
       <c r="AP7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ7" t="n">
         <v>25</v>
       </c>
       <c r="AR7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AT7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU7" t="n">
         <v>1</v>
       </c>
       <c r="AV7" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AW7" t="n">
         <v>1</v>
       </c>
       <c r="AX7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY7" t="n">
         <v>13</v>
@@ -1790,13 +1790,13 @@
         <v>19</v>
       </c>
       <c r="BA7" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BB7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BC7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1808,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-28-2020-21</t>
+          <t>2020-12-28</t>
         </is>
       </c>
     </row>
@@ -1903,43 +1903,43 @@
         <v>8</v>
       </c>
       <c r="AD8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE8" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AF8" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AG8" t="n">
         <v>18</v>
       </c>
       <c r="AH8" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK8" t="n">
         <v>11</v>
       </c>
       <c r="AL8" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AM8" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AN8" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AO8" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AP8" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AQ8" t="n">
         <v>4</v>
@@ -1954,28 +1954,28 @@
         <v>27</v>
       </c>
       <c r="AU8" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AV8" t="n">
         <v>1</v>
       </c>
       <c r="AW8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX8" t="n">
         <v>30</v>
       </c>
       <c r="AY8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ8" t="n">
         <v>6</v>
       </c>
-      <c r="AZ8" t="n">
-        <v>8</v>
-      </c>
       <c r="BA8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC8" t="n">
         <v>6</v>
@@ -1990,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-28-2020-21</t>
+          <t>2020-12-28</t>
         </is>
       </c>
     </row>
@@ -2007,160 +2007,160 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>2</v>
       </c>
       <c r="G9" t="n">
-        <v>0.333</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>49.7</v>
+        <v>50.5</v>
       </c>
       <c r="I9" t="n">
-        <v>43.3</v>
+        <v>42</v>
       </c>
       <c r="J9" t="n">
-        <v>88.7</v>
+        <v>89.5</v>
       </c>
       <c r="K9" t="n">
-        <v>0.489</v>
+        <v>0.469</v>
       </c>
       <c r="L9" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="M9" t="n">
-        <v>32</v>
+        <v>32.5</v>
       </c>
       <c r="N9" t="n">
-        <v>0.344</v>
+        <v>0.292</v>
       </c>
       <c r="O9" t="n">
-        <v>20.3</v>
+        <v>21.5</v>
       </c>
       <c r="P9" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.782</v>
+      </c>
+      <c r="R9" t="n">
+        <v>10</v>
+      </c>
+      <c r="S9" t="n">
         <v>29</v>
       </c>
-      <c r="Q9" t="n">
-        <v>0.701</v>
-      </c>
-      <c r="R9" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="S9" t="n">
-        <v>33</v>
-      </c>
       <c r="T9" t="n">
-        <v>43.3</v>
+        <v>39</v>
       </c>
       <c r="U9" t="n">
-        <v>28</v>
+        <v>26.5</v>
       </c>
       <c r="V9" t="n">
-        <v>14.7</v>
+        <v>14</v>
       </c>
       <c r="W9" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X9" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="Y9" t="n">
-        <v>4.7</v>
+        <v>5.5</v>
       </c>
       <c r="Z9" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>115</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>-7.5</v>
+      </c>
+      <c r="AD9" t="n">
         <v>21</v>
       </c>
-      <c r="AA9" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>118</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>-0.7</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>3</v>
-      </c>
       <c r="AE9" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AF9" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AH9" t="n">
         <v>4</v>
       </c>
       <c r="AI9" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AJ9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK9" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AL9" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AM9" t="n">
         <v>20</v>
       </c>
       <c r="AN9" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="AO9" t="n">
         <v>9</v>
       </c>
       <c r="AP9" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AQ9" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="AR9" t="n">
         <v>11</v>
       </c>
       <c r="AS9" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="AT9" t="n">
+        <v>28</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>20</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>11</v>
+      </c>
+      <c r="BC9" t="n">
         <v>21</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>16</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>13</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>7</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>16</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2172,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-28-2020-21</t>
+          <t>2020-12-28</t>
         </is>
       </c>
     </row>
@@ -2189,157 +2189,157 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>51.3</v>
+        <v>53</v>
       </c>
       <c r="I10" t="n">
-        <v>42.7</v>
+        <v>42.5</v>
       </c>
       <c r="J10" t="n">
-        <v>96.3</v>
+        <v>95.5</v>
       </c>
       <c r="K10" t="n">
-        <v>0.443</v>
+        <v>0.445</v>
       </c>
       <c r="L10" t="n">
-        <v>12.3</v>
+        <v>12</v>
       </c>
       <c r="M10" t="n">
-        <v>40.3</v>
+        <v>40</v>
       </c>
       <c r="N10" t="n">
-        <v>0.306</v>
+        <v>0.3</v>
       </c>
       <c r="O10" t="n">
-        <v>15.7</v>
+        <v>13</v>
       </c>
       <c r="P10" t="n">
-        <v>21.3</v>
+        <v>20</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.734</v>
+        <v>0.65</v>
       </c>
       <c r="R10" t="n">
-        <v>11.3</v>
+        <v>8.5</v>
       </c>
       <c r="S10" t="n">
-        <v>38.3</v>
+        <v>42</v>
       </c>
       <c r="T10" t="n">
-        <v>49.7</v>
+        <v>50.5</v>
       </c>
       <c r="U10" t="n">
-        <v>25.7</v>
+        <v>26.5</v>
       </c>
       <c r="V10" t="n">
-        <v>15.7</v>
+        <v>19.5</v>
       </c>
       <c r="W10" t="n">
         <v>7</v>
       </c>
       <c r="X10" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.3</v>
+        <v>4.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>21.7</v>
+        <v>20</v>
       </c>
       <c r="AA10" t="n">
-        <v>20.7</v>
+        <v>20</v>
       </c>
       <c r="AB10" t="n">
-        <v>113.3</v>
+        <v>110</v>
       </c>
       <c r="AC10" t="n">
-        <v>-9</v>
+        <v>-9.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="AE10" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AF10" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="AG10" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AH10" t="n">
         <v>1</v>
       </c>
       <c r="AI10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM10" t="n">
         <v>4</v>
       </c>
       <c r="AN10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO10" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AP10" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AQ10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR10" t="n">
         <v>22</v>
       </c>
-      <c r="AR10" t="n">
-        <v>6</v>
-      </c>
       <c r="AS10" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AT10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV10" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="AW10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX10" t="n">
         <v>25</v>
       </c>
       <c r="AY10" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="AZ10" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA10" t="n">
         <v>17</v>
       </c>
-      <c r="BA10" t="n">
-        <v>13</v>
-      </c>
       <c r="BB10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BC10" t="n">
         <v>25</v>
@@ -2354,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-28-2020-21</t>
+          <t>2020-12-28</t>
         </is>
       </c>
     </row>
@@ -2449,19 +2449,19 @@
         <v>-21.3</v>
       </c>
       <c r="AD11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE11" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AF11" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AG11" t="n">
         <v>18</v>
       </c>
       <c r="AH11" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI11" t="n">
         <v>28</v>
@@ -2473,28 +2473,28 @@
         <v>30</v>
       </c>
       <c r="AL11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP11" t="n">
         <v>11</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>28</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>6</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>10</v>
       </c>
       <c r="AQ11" t="n">
         <v>8</v>
       </c>
       <c r="AR11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT11" t="n">
         <v>19</v>
@@ -2512,13 +2512,13 @@
         <v>12</v>
       </c>
       <c r="AY11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ11" t="n">
         <v>21</v>
       </c>
       <c r="BA11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB11" t="n">
         <v>19</v>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-28-2020-21</t>
+          <t>2020-12-28</t>
         </is>
       </c>
     </row>
@@ -2553,160 +2553,160 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>50.5</v>
+        <v>53</v>
       </c>
       <c r="I12" t="n">
+        <v>45</v>
+      </c>
+      <c r="J12" t="n">
+        <v>87</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.517</v>
+      </c>
+      <c r="L12" t="n">
+        <v>11</v>
+      </c>
+      <c r="M12" t="n">
+        <v>35</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.314</v>
+      </c>
+      <c r="O12" t="n">
+        <v>25</v>
+      </c>
+      <c r="P12" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.781</v>
+      </c>
+      <c r="R12" t="n">
+        <v>10</v>
+      </c>
+      <c r="S12" t="n">
+        <v>32</v>
+      </c>
+      <c r="T12" t="n">
         <v>42</v>
       </c>
-      <c r="J12" t="n">
-        <v>86.5</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.486</v>
-      </c>
-      <c r="L12" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="M12" t="n">
-        <v>37</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0.365</v>
-      </c>
-      <c r="O12" t="n">
-        <v>21</v>
-      </c>
-      <c r="P12" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0.764</v>
-      </c>
-      <c r="R12" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="S12" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="T12" t="n">
-        <v>40</v>
-      </c>
       <c r="U12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="V12" t="n">
         <v>16</v>
       </c>
       <c r="W12" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="X12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>126</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF12" t="n">
         <v>6</v>
       </c>
-      <c r="Z12" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>118.5</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>-7.5</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>27</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>16</v>
-      </c>
       <c r="AG12" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AH12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK12" t="n">
         <v>3</v>
       </c>
-      <c r="AI12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ12" t="n">
+      <c r="AL12" t="n">
         <v>23</v>
       </c>
-      <c r="AK12" t="n">
-        <v>7</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>8</v>
-      </c>
       <c r="AM12" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AN12" t="n">
+        <v>24</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AR12" t="n">
         <v>11</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>6</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>6</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>16</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>28</v>
       </c>
       <c r="AS12" t="n">
         <v>25</v>
       </c>
       <c r="AT12" t="n">
+        <v>24</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>16</v>
+      </c>
+      <c r="AW12" t="n">
         <v>27</v>
       </c>
-      <c r="AU12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV12" t="n">
+      <c r="AX12" t="n">
+        <v>16</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA12" t="n">
         <v>17</v>
       </c>
-      <c r="AW12" t="n">
-        <v>22</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>24</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>22</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>25</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>26</v>
-      </c>
       <c r="BB12" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BC12" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2718,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-28-2020-21</t>
+          <t>2020-12-28</t>
         </is>
       </c>
     </row>
@@ -2813,7 +2813,7 @@
         <v>11.3</v>
       </c>
       <c r="AD13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE13" t="n">
         <v>1</v>
@@ -2825,16 +2825,16 @@
         <v>1</v>
       </c>
       <c r="AH13" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI13" t="n">
         <v>1</v>
       </c>
       <c r="AJ13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL13" t="n">
         <v>30</v>
@@ -2843,16 +2843,16 @@
         <v>25</v>
       </c>
       <c r="AN13" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AO13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR13" t="n">
         <v>18</v>
@@ -2861,10 +2861,10 @@
         <v>13</v>
       </c>
       <c r="AT13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV13" t="n">
         <v>12</v>
@@ -2873,22 +2873,22 @@
         <v>3</v>
       </c>
       <c r="AX13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AY13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AZ13" t="n">
         <v>24</v>
       </c>
       <c r="BA13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB13" t="n">
         <v>7</v>
       </c>
       <c r="BC13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2900,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-28-2020-21</t>
+          <t>2020-12-28</t>
         </is>
       </c>
     </row>
@@ -2995,19 +2995,19 @@
         <v>-10.3</v>
       </c>
       <c r="AD14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH14" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI14" t="n">
         <v>29</v>
@@ -3016,43 +3016,43 @@
         <v>29</v>
       </c>
       <c r="AK14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AM14" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AN14" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AO14" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ14" t="n">
         <v>7</v>
       </c>
       <c r="AR14" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AS14" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AT14" t="n">
         <v>30</v>
       </c>
       <c r="AU14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX14" t="n">
         <v>27</v>
@@ -3064,13 +3064,13 @@
         <v>30</v>
       </c>
       <c r="BA14" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BB14" t="n">
         <v>29</v>
       </c>
       <c r="BC14" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3082,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-28-2020-21</t>
+          <t>2020-12-28</t>
         </is>
       </c>
     </row>
@@ -3099,160 +3099,160 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E15" t="n">
         <v>2</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5</v>
+        <v>0.667</v>
       </c>
       <c r="H15" t="n">
         <v>48</v>
       </c>
       <c r="I15" t="n">
-        <v>45</v>
+        <v>46.3</v>
       </c>
       <c r="J15" t="n">
         <v>87.3</v>
       </c>
       <c r="K15" t="n">
-        <v>0.516</v>
+        <v>0.531</v>
       </c>
       <c r="L15" t="n">
-        <v>12.8</v>
+        <v>13.7</v>
       </c>
       <c r="M15" t="n">
-        <v>32.5</v>
+        <v>34.3</v>
       </c>
       <c r="N15" t="n">
-        <v>0.392</v>
+        <v>0.398</v>
       </c>
       <c r="O15" t="n">
-        <v>17.5</v>
+        <v>18.3</v>
       </c>
       <c r="P15" t="n">
-        <v>22.8</v>
+        <v>24.3</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.769</v>
+        <v>0.753</v>
       </c>
       <c r="R15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S15" t="n">
-        <v>37.3</v>
+        <v>38</v>
       </c>
       <c r="T15" t="n">
-        <v>46.3</v>
+        <v>48</v>
       </c>
       <c r="U15" t="n">
-        <v>26.8</v>
+        <v>29</v>
       </c>
       <c r="V15" t="n">
-        <v>17</v>
+        <v>17.7</v>
       </c>
       <c r="W15" t="n">
         <v>6.3</v>
       </c>
       <c r="X15" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Z15" t="n">
-        <v>19</v>
+        <v>20.7</v>
       </c>
       <c r="AA15" t="n">
-        <v>22.8</v>
+        <v>25</v>
       </c>
       <c r="AB15" t="n">
-        <v>120.3</v>
+        <v>124.7</v>
       </c>
       <c r="AC15" t="n">
-        <v>11</v>
+        <v>17.3</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
       </c>
       <c r="AE15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF15" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="AG15" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AH15" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ15" t="n">
         <v>21</v>
       </c>
       <c r="AK15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>18</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>18</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB15" t="n">
         <v>2</v>
       </c>
-      <c r="AL15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>16</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>16</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>18</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>24</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>6</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>8</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>5</v>
-      </c>
       <c r="BC15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3264,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-28-2020-21</t>
+          <t>2020-12-28</t>
         </is>
       </c>
     </row>
@@ -3281,160 +3281,160 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>2</v>
       </c>
       <c r="G16" t="n">
-        <v>0.333</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>49.7</v>
+        <v>48</v>
       </c>
       <c r="I16" t="n">
-        <v>42.7</v>
+        <v>43</v>
       </c>
       <c r="J16" t="n">
-        <v>95.3</v>
+        <v>94</v>
       </c>
       <c r="K16" t="n">
-        <v>0.448</v>
+        <v>0.457</v>
       </c>
       <c r="L16" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="M16" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N16" t="n">
-        <v>0.333</v>
+        <v>0.329</v>
       </c>
       <c r="O16" t="n">
-        <v>19.3</v>
+        <v>18</v>
       </c>
       <c r="P16" t="n">
-        <v>25.3</v>
+        <v>23.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.763</v>
+        <v>0.766</v>
       </c>
       <c r="R16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="S16" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T16" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="U16" t="n">
-        <v>22.3</v>
+        <v>23.5</v>
       </c>
       <c r="V16" t="n">
-        <v>13.3</v>
+        <v>10.5</v>
       </c>
       <c r="W16" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X16" t="n">
         <v>7</v>
       </c>
-      <c r="X16" t="n">
-        <v>6</v>
-      </c>
       <c r="Y16" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>21.3</v>
+        <v>23.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>19.3</v>
+        <v>19</v>
       </c>
       <c r="AB16" t="n">
-        <v>115.7</v>
+        <v>115.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>-5.7</v>
+        <v>-11</v>
       </c>
       <c r="AD16" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="AE16" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AF16" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AG16" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AH16" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AI16" t="n">
         <v>8</v>
       </c>
       <c r="AJ16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AK16" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AL16" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AM16" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AN16" t="n">
         <v>20</v>
       </c>
       <c r="AO16" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AP16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>16</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>28</v>
+      </c>
+      <c r="AS16" t="n">
         <v>11</v>
       </c>
-      <c r="AQ16" t="n">
-        <v>18</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>8</v>
-      </c>
       <c r="AT16" t="n">
+        <v>16</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>16</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>24</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>25</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>26</v>
+      </c>
+      <c r="BB16" t="n">
         <v>9</v>
       </c>
-      <c r="AU16" t="n">
-        <v>22</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>4</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>16</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>9</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>15</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>25</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>10</v>
-      </c>
       <c r="BC16" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3446,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-28-2020-21</t>
+          <t>2020-12-28</t>
         </is>
       </c>
     </row>
@@ -3541,31 +3541,31 @@
         <v>3.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AE17" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AF17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH17" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ17" t="n">
         <v>30</v>
       </c>
       <c r="AK17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM17" t="n">
         <v>26</v>
@@ -3574,10 +3574,10 @@
         <v>4</v>
       </c>
       <c r="AO17" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AP17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ17" t="n">
         <v>2</v>
@@ -3589,13 +3589,13 @@
         <v>21</v>
       </c>
       <c r="AT17" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AU17" t="n">
         <v>8</v>
       </c>
       <c r="AV17" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AW17" t="n">
         <v>2</v>
@@ -3610,7 +3610,7 @@
         <v>21</v>
       </c>
       <c r="BA17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB17" t="n">
         <v>19</v>
@@ -3628,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-28-2020-21</t>
+          <t>2020-12-28</t>
         </is>
       </c>
     </row>
@@ -3723,40 +3723,40 @@
         <v>6</v>
       </c>
       <c r="AD18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE18" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AF18" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AG18" t="n">
         <v>18</v>
       </c>
       <c r="AH18" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL18" t="n">
         <v>5</v>
       </c>
-      <c r="AL18" t="n">
-        <v>6</v>
-      </c>
       <c r="AM18" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AN18" t="n">
         <v>9</v>
       </c>
       <c r="AO18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP18" t="n">
         <v>13</v>
@@ -3765,13 +3765,13 @@
         <v>21</v>
       </c>
       <c r="AR18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS18" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AT18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU18" t="n">
         <v>20</v>
@@ -3780,25 +3780,25 @@
         <v>12</v>
       </c>
       <c r="AW18" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AX18" t="n">
         <v>16</v>
       </c>
       <c r="AY18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ18" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BA18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BB18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3810,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-28-2020-21</t>
+          <t>2020-12-28</t>
         </is>
       </c>
     </row>
@@ -3905,19 +3905,19 @@
         <v>-7</v>
       </c>
       <c r="AD19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH19" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI19" t="n">
         <v>18</v>
@@ -3929,37 +3929,37 @@
         <v>29</v>
       </c>
       <c r="AL19" t="n">
+        <v>25</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>28</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>24</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS19" t="n">
         <v>27</v>
       </c>
-      <c r="AM19" t="n">
-        <v>16</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>22</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>25</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>14</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>28</v>
-      </c>
       <c r="AT19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW19" t="n">
         <v>13</v>
@@ -3974,13 +3974,13 @@
         <v>19</v>
       </c>
       <c r="BA19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB19" t="n">
         <v>27</v>
       </c>
       <c r="BC19" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3992,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-28-2020-21</t>
+          <t>2020-12-28</t>
         </is>
       </c>
     </row>
@@ -4087,19 +4087,19 @@
         <v>1.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH20" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI20" t="n">
         <v>30</v>
@@ -4108,61 +4108,61 @@
         <v>27</v>
       </c>
       <c r="AK20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN20" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AO20" t="n">
         <v>11</v>
       </c>
       <c r="AP20" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AQ20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AR20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS20" t="n">
         <v>12</v>
       </c>
       <c r="AT20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU20" t="n">
         <v>28</v>
       </c>
       <c r="AV20" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AW20" t="n">
         <v>3</v>
       </c>
       <c r="AX20" t="n">
+        <v>20</v>
+      </c>
+      <c r="AY20" t="n">
         <v>21</v>
       </c>
-      <c r="AY20" t="n">
-        <v>20</v>
-      </c>
       <c r="AZ20" t="n">
         <v>1</v>
       </c>
       <c r="BA20" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BB20" t="n">
         <v>30</v>
       </c>
       <c r="BC20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4174,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-28-2020-21</t>
+          <t>2020-12-28</t>
         </is>
       </c>
     </row>
@@ -4269,19 +4269,19 @@
         <v>-4.7</v>
       </c>
       <c r="AD21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE21" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AF21" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AG21" t="n">
         <v>18</v>
       </c>
       <c r="AH21" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI21" t="n">
         <v>25</v>
@@ -4290,10 +4290,10 @@
         <v>26</v>
       </c>
       <c r="AK21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL21" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AM21" t="n">
         <v>27</v>
@@ -4302,31 +4302,31 @@
         <v>2</v>
       </c>
       <c r="AO21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP21" t="n">
         <v>13</v>
       </c>
       <c r="AQ21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR21" t="n">
         <v>20</v>
       </c>
       <c r="AS21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT21" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AU21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AV21" t="n">
         <v>16</v>
       </c>
-      <c r="AV21" t="n">
-        <v>17</v>
-      </c>
       <c r="AW21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AX21" t="n">
         <v>12</v>
@@ -4335,16 +4335,16 @@
         <v>25</v>
       </c>
       <c r="AZ21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA21" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BB21" t="n">
         <v>23</v>
       </c>
       <c r="BC21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-28-2020-21</t>
+          <t>2020-12-28</t>
         </is>
       </c>
     </row>
@@ -4373,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
         <v>48</v>
@@ -4391,142 +4391,142 @@
         <v>40</v>
       </c>
       <c r="J22" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K22" t="n">
-        <v>0.46</v>
+        <v>0.455</v>
       </c>
       <c r="L22" t="n">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="M22" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N22" t="n">
-        <v>0.338</v>
+        <v>0.278</v>
       </c>
       <c r="O22" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="P22" t="n">
-        <v>21.5</v>
+        <v>24</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.767</v>
+        <v>0.792</v>
       </c>
       <c r="R22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S22" t="n">
-        <v>37.5</v>
+        <v>45</v>
       </c>
       <c r="T22" t="n">
-        <v>45.5</v>
+        <v>54</v>
       </c>
       <c r="U22" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="V22" t="n">
         <v>17</v>
       </c>
       <c r="W22" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Z22" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AA22" t="n">
-        <v>20.5</v>
+        <v>22</v>
       </c>
       <c r="AB22" t="n">
         <v>109</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AD22" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AE22" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>25</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>30</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP22" t="n">
         <v>16</v>
       </c>
-      <c r="AF22" t="n">
+      <c r="AQ22" t="n">
+        <v>9</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>18</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AW22" t="n">
         <v>5</v>
       </c>
-      <c r="AG22" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>20</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>22</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>9</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>18</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>12</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>25</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>10</v>
-      </c>
-      <c r="AT22" t="n">
+      <c r="AX22" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>30</v>
+      </c>
+      <c r="AZ22" t="n">
         <v>13</v>
       </c>
-      <c r="AU22" t="n">
-        <v>19</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>9</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>9</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>27</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>5</v>
-      </c>
       <c r="BA22" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="BB22" t="n">
         <v>19</v>
       </c>
       <c r="BC22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4538,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-28-2020-21</t>
+          <t>2020-12-28</t>
         </is>
       </c>
     </row>
@@ -4633,7 +4633,7 @@
         <v>7.7</v>
       </c>
       <c r="AD23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
         <v>1</v>
@@ -4645,25 +4645,25 @@
         <v>1</v>
       </c>
       <c r="AH23" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI23" t="n">
         <v>10</v>
       </c>
       <c r="AJ23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL23" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AM23" t="n">
         <v>27</v>
       </c>
       <c r="AN23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO23" t="n">
         <v>2</v>
@@ -4675,22 +4675,22 @@
         <v>6</v>
       </c>
       <c r="AR23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS23" t="n">
         <v>15</v>
       </c>
       <c r="AT23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV23" t="n">
         <v>8</v>
       </c>
       <c r="AW23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX23" t="n">
         <v>28</v>
@@ -4702,10 +4702,10 @@
         <v>2</v>
       </c>
       <c r="BA23" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BB23" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BC23" t="n">
         <v>7</v>
@@ -4720,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-28-2020-21</t>
+          <t>2020-12-28</t>
         </is>
       </c>
     </row>
@@ -4815,40 +4815,40 @@
         <v>0.7</v>
       </c>
       <c r="AD24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH24" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI24" t="n">
         <v>26</v>
       </c>
       <c r="AJ24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL24" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AM24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN24" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP24" t="n">
         <v>12</v>
@@ -4857,25 +4857,25 @@
         <v>19</v>
       </c>
       <c r="AR24" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AS24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU24" t="n">
         <v>26</v>
       </c>
       <c r="AV24" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AW24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX24" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AY24" t="n">
         <v>13</v>
@@ -4884,13 +4884,13 @@
         <v>13</v>
       </c>
       <c r="BA24" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BB24" t="n">
         <v>28</v>
       </c>
       <c r="BC24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4902,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-28-2020-21</t>
+          <t>2020-12-28</t>
         </is>
       </c>
     </row>
@@ -4997,19 +4997,19 @@
         <v>5.7</v>
       </c>
       <c r="AD25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH25" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI25" t="n">
         <v>13</v>
@@ -5018,61 +5018,61 @@
         <v>15</v>
       </c>
       <c r="AK25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL25" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AM25" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AN25" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AO25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP25" t="n">
         <v>29</v>
       </c>
       <c r="AQ25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AR25" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AS25" t="n">
         <v>14</v>
       </c>
       <c r="AT25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU25" t="n">
         <v>10</v>
       </c>
       <c r="AV25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX25" t="n">
         <v>16</v>
       </c>
       <c r="AY25" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AZ25" t="n">
         <v>21</v>
       </c>
       <c r="BA25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB25" t="n">
         <v>24</v>
       </c>
       <c r="BC25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5084,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-28-2020-21</t>
+          <t>2020-12-28</t>
         </is>
       </c>
     </row>
@@ -5101,136 +5101,136 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
         <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>0.667</v>
+        <v>0.5</v>
       </c>
       <c r="H26" t="n">
-        <v>49.7</v>
+        <v>50.5</v>
       </c>
       <c r="I26" t="n">
-        <v>42.3</v>
+        <v>42</v>
       </c>
       <c r="J26" t="n">
-        <v>95.3</v>
+        <v>97</v>
       </c>
       <c r="K26" t="n">
-        <v>0.444</v>
+        <v>0.433</v>
       </c>
       <c r="L26" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="M26" t="n">
-        <v>41.3</v>
+        <v>39</v>
       </c>
       <c r="N26" t="n">
-        <v>0.379</v>
+        <v>0.397</v>
       </c>
       <c r="O26" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="P26" t="n">
-        <v>18.3</v>
+        <v>20</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.764</v>
+        <v>0.725</v>
       </c>
       <c r="R26" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="S26" t="n">
-        <v>35.3</v>
+        <v>34</v>
       </c>
       <c r="T26" t="n">
-        <v>43.3</v>
+        <v>42.5</v>
       </c>
       <c r="U26" t="n">
-        <v>25.7</v>
+        <v>25</v>
       </c>
       <c r="V26" t="n">
         <v>10</v>
       </c>
       <c r="W26" t="n">
-        <v>8.300000000000001</v>
+        <v>8</v>
       </c>
       <c r="X26" t="n">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="Y26" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="Z26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AA26" t="n">
-        <v>17.3</v>
+        <v>19</v>
       </c>
       <c r="AB26" t="n">
-        <v>114.3</v>
+        <v>114</v>
       </c>
       <c r="AC26" t="n">
-        <v>-3.3</v>
+        <v>-9</v>
       </c>
       <c r="AD26" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="AE26" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="AF26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG26" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AH26" t="n">
         <v>4</v>
       </c>
       <c r="AI26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK26" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>5</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO26" t="n">
         <v>24</v>
       </c>
-      <c r="AL26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>3</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>8</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>25</v>
-      </c>
       <c r="AP26" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AQ26" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AR26" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AS26" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AT26" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AU26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV26" t="n">
         <v>2</v>
@@ -5239,22 +5239,22 @@
         <v>14</v>
       </c>
       <c r="AX26" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AY26" t="n">
         <v>6</v>
       </c>
       <c r="AZ26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BA26" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="BB26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC26" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5266,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-28-2020-21</t>
+          <t>2020-12-28</t>
         </is>
       </c>
     </row>
@@ -5361,28 +5361,28 @@
         <v>-3.7</v>
       </c>
       <c r="AD27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH27" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AI27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ27" t="n">
         <v>18</v>
       </c>
       <c r="AK27" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL27" t="n">
         <v>29</v>
@@ -5391,37 +5391,37 @@
         <v>30</v>
       </c>
       <c r="AN27" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AO27" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP27" t="n">
         <v>4</v>
       </c>
-      <c r="AP27" t="n">
-        <v>3</v>
-      </c>
       <c r="AQ27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR27" t="n">
         <v>4</v>
       </c>
       <c r="AS27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AT27" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AU27" t="n">
         <v>20</v>
       </c>
       <c r="AV27" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW27" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AX27" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AY27" t="n">
         <v>23</v>
@@ -5430,13 +5430,13 @@
         <v>28</v>
       </c>
       <c r="BA27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB27" t="n">
+        <v>17</v>
+      </c>
+      <c r="BC27" t="n">
         <v>18</v>
-      </c>
-      <c r="BC27" t="n">
-        <v>19</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5448,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-28-2020-21</t>
+          <t>2020-12-28</t>
         </is>
       </c>
     </row>
@@ -5543,31 +5543,31 @@
         <v>4.7</v>
       </c>
       <c r="AD28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE28" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ28" t="n">
         <v>5</v>
       </c>
-      <c r="AF28" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>6</v>
-      </c>
       <c r="AK28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL28" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM28" t="n">
         <v>23</v>
@@ -5576,7 +5576,7 @@
         <v>10</v>
       </c>
       <c r="AO28" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP28" t="n">
         <v>28</v>
@@ -5588,10 +5588,10 @@
         <v>20</v>
       </c>
       <c r="AS28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AT28" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AU28" t="n">
         <v>3</v>
@@ -5600,19 +5600,19 @@
         <v>8</v>
       </c>
       <c r="AW28" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AX28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY28" t="n">
         <v>27</v>
       </c>
       <c r="AZ28" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB28" t="n">
         <v>11</v>
@@ -5630,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-28-2020-21</t>
+          <t>2020-12-28</t>
         </is>
       </c>
     </row>
@@ -5725,37 +5725,37 @@
         <v>-9.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AE29" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AF29" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AG29" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AH29" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI29" t="n">
         <v>16</v>
       </c>
       <c r="AJ29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM29" t="n">
         <v>1</v>
       </c>
       <c r="AN29" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AO29" t="n">
         <v>30</v>
@@ -5770,7 +5770,7 @@
         <v>22</v>
       </c>
       <c r="AS29" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AT29" t="n">
         <v>26</v>
@@ -5779,28 +5779,28 @@
         <v>4</v>
       </c>
       <c r="AV29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW29" t="n">
         <v>11</v>
       </c>
       <c r="AX29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY29" t="n">
         <v>16</v>
       </c>
       <c r="AZ29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA29" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BB29" t="n">
         <v>26</v>
       </c>
       <c r="BC29" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5812,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-28-2020-21</t>
+          <t>2020-12-28</t>
         </is>
       </c>
     </row>
@@ -5829,127 +5829,127 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
         <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>0.667</v>
+        <v>0.5</v>
       </c>
       <c r="H30" t="n">
         <v>48</v>
       </c>
       <c r="I30" t="n">
-        <v>40.7</v>
+        <v>39.5</v>
       </c>
       <c r="J30" t="n">
-        <v>91.3</v>
+        <v>94</v>
       </c>
       <c r="K30" t="n">
-        <v>0.445</v>
+        <v>0.42</v>
       </c>
       <c r="L30" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="M30" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N30" t="n">
-        <v>0.35</v>
+        <v>0.345</v>
       </c>
       <c r="O30" t="n">
-        <v>18.3</v>
+        <v>22</v>
       </c>
       <c r="P30" t="n">
-        <v>23.3</v>
+        <v>28</v>
       </c>
       <c r="Q30" t="n">
         <v>0.786</v>
       </c>
       <c r="R30" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="S30" t="n">
-        <v>40</v>
+        <v>42.5</v>
       </c>
       <c r="T30" t="n">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="U30" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>15</v>
+      </c>
+      <c r="W30" t="n">
+        <v>4</v>
+      </c>
+      <c r="X30" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>115.5</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD30" t="n">
         <v>21</v>
       </c>
-      <c r="V30" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="W30" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="X30" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>113.7</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AD30" t="n">
+      <c r="AE30" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL30" t="n">
         <v>3</v>
       </c>
-      <c r="AE30" t="n">
-        <v>5</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>14</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>5</v>
-      </c>
       <c r="AM30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AN30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO30" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AP30" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AQ30" t="n">
         <v>10</v>
       </c>
       <c r="AR30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS30" t="n">
         <v>2</v>
@@ -5958,31 +5958,31 @@
         <v>1</v>
       </c>
       <c r="AU30" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AV30" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AW30" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AX30" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AY30" t="n">
         <v>6</v>
       </c>
       <c r="AZ30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BA30" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BB30" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BC30" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5994,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-28-2020-21</t>
+          <t>2020-12-28</t>
         </is>
       </c>
     </row>
@@ -6089,37 +6089,37 @@
         <v>-7.7</v>
       </c>
       <c r="AD31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE31" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AF31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG31" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AH31" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO31" t="n">
         <v>25</v>
@@ -6128,13 +6128,13 @@
         <v>19</v>
       </c>
       <c r="AQ31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AR31" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AS31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT31" t="n">
         <v>21</v>
@@ -6143,13 +6143,13 @@
         <v>7</v>
       </c>
       <c r="AV31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW31" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AX31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AY31" t="n">
         <v>4</v>
@@ -6158,13 +6158,13 @@
         <v>29</v>
       </c>
       <c r="BA31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB31" t="n">
         <v>15</v>
       </c>
       <c r="BC31" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6176,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-28-2020-21</t>
+          <t>2020-12-28</t>
         </is>
       </c>
     </row>
